--- a/data/recolape_definition_data_format.xlsx
+++ b/data/recolape_definition_data_format.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IRD\5-Projets_&amp;_themes\1-RECOLAPE\3-Productions\WP5\T5.1_5.2\3-Package\dqassess\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IRD\4-Developpement\1-R\6-Packages\dqassess\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="format_infos" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="226">
   <si>
     <t>format_name</t>
   </si>
@@ -1432,14 +1432,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2179,7 +2188,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2685,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/recolape_definition_data_format.xlsx
+++ b/data/recolape_definition_data_format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="format_infos" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,21 @@
     <sheet name="landing_table" sheetId="10" r:id="rId5"/>
     <sheet name="sampling_table" sheetId="11" r:id="rId6"/>
     <sheet name="numeric_types" sheetId="4" r:id="rId7"/>
-    <sheet name="text_types" sheetId="5" r:id="rId8"/>
-    <sheet name="date_types" sheetId="6" r:id="rId9"/>
-    <sheet name="codelist_types" sheetId="8" r:id="rId10"/>
-    <sheet name="codelist_country" sheetId="9" r:id="rId11"/>
-    <sheet name="codelist_vessel" sheetId="12" r:id="rId12"/>
-    <sheet name="codelist_fishing_level6" sheetId="13" r:id="rId13"/>
-    <sheet name="codelist_fishing_level7" sheetId="14" r:id="rId14"/>
-    <sheet name="codelist_specie" sheetId="15" r:id="rId15"/>
-    <sheet name="codelist_sampling_type" sheetId="16" r:id="rId16"/>
-    <sheet name="codelist_sampling_method" sheetId="17" r:id="rId17"/>
-    <sheet name="codelist_agregation_level" sheetId="18" r:id="rId18"/>
-    <sheet name="codelist_catch_registration" sheetId="19" r:id="rId19"/>
-    <sheet name="codelist_catch_category" sheetId="20" r:id="rId20"/>
-    <sheet name="codelist_lenght_code" sheetId="21" r:id="rId21"/>
+    <sheet name="logical_types" sheetId="24" r:id="rId8"/>
+    <sheet name="text_types" sheetId="5" r:id="rId9"/>
+    <sheet name="date_types" sheetId="6" r:id="rId10"/>
+    <sheet name="codelist_types" sheetId="8" r:id="rId11"/>
+    <sheet name="codelist_country" sheetId="9" r:id="rId12"/>
+    <sheet name="codelist_vessel" sheetId="12" r:id="rId13"/>
+    <sheet name="codelist_fishing_level6" sheetId="13" r:id="rId14"/>
+    <sheet name="codelist_fishing_level7" sheetId="14" r:id="rId15"/>
+    <sheet name="codelist_specie" sheetId="15" r:id="rId16"/>
+    <sheet name="codelist_sampling_type" sheetId="16" r:id="rId17"/>
+    <sheet name="codelist_sampling_method" sheetId="17" r:id="rId18"/>
+    <sheet name="codelist_agregation_level" sheetId="18" r:id="rId19"/>
+    <sheet name="codelist_catch_registration" sheetId="19" r:id="rId20"/>
+    <sheet name="codelist_catch_category" sheetId="20" r:id="rId21"/>
+    <sheet name="codelist_lenght_code" sheetId="21" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">sampling_table!$A$1:$F$24</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="226">
   <si>
     <t>format_name</t>
   </si>
@@ -731,12 +732,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -756,15 +764,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1083,6 +1094,72 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="1020" width="11.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1213,7 +1290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -1430,11 +1507,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1453,7 +1530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1528,7 +1605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1619,7 +1696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1677,7 +1754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1736,7 +1813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1778,7 +1855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1814,65 +1891,6 @@
       </c>
       <c r="B3" t="s">
         <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1955,6 +1973,65 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1996,7 +2073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3371,6 +3448,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3417,70 +3515,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="1020" width="11.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>